--- a/Link GIthub dan postingan ig leni.xlsx
+++ b/Link GIthub dan postingan ig leni.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\file-excel-tugas-atw\file-excel-tugas-atw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="496"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Link Github</t>
   </si>
@@ -35,80 +35,116 @@
     <t>Link Github : https://github.com/LeniSuryani/Tugas-ATW-Leni/blob/master/Tugas-minggu-1.php</t>
   </si>
   <si>
-    <t>Link IG : https://www.instagram.com/p/CFBr3XYAyhITSNZAcaeo53Onk_52aQtiqg0EX40/</t>
-  </si>
-  <si>
     <t>Week</t>
   </si>
   <si>
-    <t>Link Repository Github: https://github.com/LeniSuryani/Laravel-ATW/commit/9bd06e5973fca087db7cfb72012be1c193129db2</t>
-  </si>
-  <si>
-    <t>Link Postingan Instagram: https://www.instagram.com/p/CG468kOAhDbP9kKi67KSkJb-I14K4_ZLYBIq1o0/</t>
-  </si>
-  <si>
-    <t>Link Repository github: https://github.com/LeniSuryani/Laravel-ATW/commit/4d7965e64bd94997bb11818f502dbc1e752e5fa4</t>
-  </si>
-  <si>
-    <t>Link Postingan Instagram : https://www.instagram.com/p/CGynFZsgAg6MQgNMgfEiQZn1EWGabwUBU416ko0/</t>
-  </si>
-  <si>
-    <t>Link Commit dari Repository : https://github.com/LeniSuryani/Laravel-ATW/commit/a6485f16babb0700d01b292278ce4d96a40a850c</t>
-  </si>
-  <si>
-    <t>Link postingan Instagram : https://www.instagram.com/p/CHqcwRkgUxLZ3XCvOCrdiQNPvO2ouMKdLZFsS00/</t>
-  </si>
-  <si>
-    <t>Link Commit terakhir dari repository projek : https://github.com/LeniSuryani/Laravel-ATW/commit/aa4260160092803490eb3428a934188d062672bf</t>
-  </si>
-  <si>
-    <t>Link postingan Instagram : https://www.instagram.com/p/CHs23nWgNSCNjFrNrc0HfiCCdgjPVN0UyXRPXo0/</t>
-  </si>
-  <si>
-    <t>Link repository github: https://github.com/LeniSuryani/Laravel-ATW/commit/332966713a5793c7916610500f1d06cae69eee23</t>
-  </si>
-  <si>
-    <t>Link postingan instagram: https://www.instagram.com/p/CH5pTpIgx_yyjyNI-5gMQn6NFYYxgfMs9fd-dQ0/</t>
-  </si>
-  <si>
-    <t>Link repository github: https://github.com/LeniSuryani/Laravel-ATW/commit/eb8f3676a4c0bff40f7a278beec664b5d6005035</t>
-  </si>
-  <si>
-    <t>Link postingan instagram: https://www.instagram.com/p/CH5r3VpgZ_zpw20_XO1CY5wwVpLUvdOWSVKGaU0/</t>
-  </si>
-  <si>
     <t>UTS</t>
   </si>
   <si>
-    <t>Link repository github: https://github.com/LeniSuryani/uts-blog/commit/9200fda4511af5a63a253269290d0e3f4486dddc</t>
-  </si>
-  <si>
-    <t>Link postingan Instagram : https://www.instagram.com/p/CIMA3FvgmglNOuGqLnRXZkRvZbOkvzqt-jxQHg0/</t>
-  </si>
-  <si>
-    <t>Link Github : https://github.com/LeniSuryani/Laravel-ATW/commit/5fee8422345c04749f8f0b2ede79f7ab0ad80949</t>
-  </si>
-  <si>
-    <t>Link postingan IG : https://www.instagram.com/p/CKCX5MVAWCjMwDKuEwEXZLHEqEpsP1jKwQkH5g0/</t>
-  </si>
-  <si>
-    <t>Link Github : https://github.com/LeniSuryani/Laravel-ATW/commit/0f23c2e9b336334bae124f8c3a635e891ea53859</t>
-  </si>
-  <si>
-    <t>Link postingan Ig : https://www.instagram.com/p/CKCYWJ3goLyHcOqPuBYzAuA9UK_RSWgxQZeixA0/</t>
-  </si>
-  <si>
-    <t>Link Github : https://github.com/LeniSuryani/Laravel-ATW/commit/baaedcc10647999b554219db755ab127b67dda21</t>
-  </si>
-  <si>
-    <t>Link postingan IG : https://www.instagram.com/p/CKCYyyuAApuQixFDilJ0iVhwdF-wc3Fg57Bbjc0/</t>
+    <t>UAS</t>
+  </si>
+  <si>
+    <t>Link Github: https://github.com/LeniSuryani/Laravel-ATW/commit/9bd06e5973fca087db7cfb72012be1c193129db2</t>
+  </si>
+  <si>
+    <t>Link Github: https://github.com/LeniSuryani/Laravel-ATW/commit/4d7965e64bd94997bb11818f502dbc1e752e5fa4</t>
+  </si>
+  <si>
+    <t>Link Github: https://github.com/LeniSuryani/Laravel-ATW/commit/a6485f16babb0700d01b292278ce4d96a40a850c</t>
+  </si>
+  <si>
+    <t>Link Github: https://github.com/LeniSuryani/Laravel-ATW/commit/aa4260160092803490eb3428a934188d062672bf</t>
+  </si>
+  <si>
+    <t>Link Github: https://github.com/LeniSuryani/Laravel-ATW/commit/332966713a5793c7916610500f1d06cae69eee23</t>
+  </si>
+  <si>
+    <t>Link Github: https://github.com/LeniSuryani/Laravel-ATW/commit/eb8f3676a4c0bff40f7a278beec664b5d6005035</t>
+  </si>
+  <si>
+    <t>Link Github: https://github.com/LeniSuryani/uts-blog/commit/9200fda4511af5a63a253269290d0e3f4486dddc</t>
+  </si>
+  <si>
+    <t>Link Github: https://github.com/LeniSuryani/Laravel-ATW/commit/5fee8422345c04749f8f0b2ede79f7ab0ad80949</t>
+  </si>
+  <si>
+    <t>Link Github: https://github.com/LeniSuryani/Laravel-ATW/commit/0f23c2e9b336334bae124f8c3a635e891ea53859</t>
+  </si>
+  <si>
+    <t>Link Github: https://github.com/LeniSuryani/Laravel-ATW/commit/baaedcc10647999b554219db755ab127b67dda21</t>
+  </si>
+  <si>
+    <t>Link Github: https://github.com/LeniSuryani/Laravel-ATW/commit/ae05ff54f78eeb05caca4f5f41d656973b4bcac0</t>
+  </si>
+  <si>
+    <t>Link Github: https://github.com/LeniSuryani/Laravel-ATW/commit/fd77f08dd690e2d42c64cefa519e49983b8d491c</t>
+  </si>
+  <si>
+    <t>Link Github: https://github.com/LeniSuryani/Laravel-ATW/commit/6127783c0f8588e8a5951fe4ac97f33da15730d4</t>
+  </si>
+  <si>
+    <t>Link Github: https://github.com/LeniSuryani/file-excel-tugas-atw.git</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Link IG: https://www.instagram.com/p/CFBr3XYAyhITSNZAcaeo53Onk_52aQtiqg0EX40/</t>
+  </si>
+  <si>
+    <t>Link IG: https://www.instagram.com/p/CG468kOAhDbP9kKi67KSkJb-I14K4_ZLYBIq1o0/</t>
+  </si>
+  <si>
+    <t>Link IG: https://www.instagram.com/p/CGynFZsgAg6MQgNMgfEiQZn1EWGabwUBU416ko0/</t>
+  </si>
+  <si>
+    <t>Link IG: https://www.instagram.com/p/CHqcwRkgUxLZ3XCvOCrdiQNPvO2ouMKdLZFsS00/</t>
+  </si>
+  <si>
+    <t>Link IG : https://www.instagram.com/p/CHs23nWgNSCNjFrNrc0HfiCCdgjPVN0UyXRPXo0/</t>
+  </si>
+  <si>
+    <t>Link IG: https://www.instagram.com/p/CH5pTpIgx_yyjyNI-5gMQn6NFYYxgfMs9fd-dQ0/</t>
+  </si>
+  <si>
+    <t>Link IG: https://www.instagram.com/p/CH5r3VpgZ_zpw20_XO1CY5wwVpLUvdOWSVKGaU0/</t>
+  </si>
+  <si>
+    <t>Link IG: https://www.instagram.com/p/CIMA3FvgmglNOuGqLnRXZkRvZbOkvzqt-jxQHg0/</t>
+  </si>
+  <si>
+    <t>Link IG: https://www.instagram.com/p/CKCX5MVAWCjMwDKuEwEXZLHEqEpsP1jKwQkH5g0/</t>
+  </si>
+  <si>
+    <t>Link IG: https://www.instagram.com/p/CKCYWJ3goLyHcOqPuBYzAuA9UK_RSWgxQZeixA0/</t>
+  </si>
+  <si>
+    <t>Link IG: https://www.instagram.com/p/CKCYyyuAApuQixFDilJ0iVhwdF-wc3Fg57Bbjc0/</t>
+  </si>
+  <si>
+    <t>Link IG: https://www.instagram.com/p/CKEYhhlAgO8vo6A6-Qx3rrQ0PhGVHzNjqR9mxk0/</t>
+  </si>
+  <si>
+    <t>Link IG: https://www.instagram.com/p/CKEqAQbASuES9bRdyLRTRw4qbHWHhMf4ZnL3oA0/</t>
+  </si>
+  <si>
+    <t>Link IG: https://www.instagram.com/p/CKEqhC8ggoa4xAWssCu3JwZtZYfDaa5hZm1j680/</t>
+  </si>
+  <si>
+    <t>Link IG: https://www.instagram.com/p/CKMVwBTAjakcSCnO8UIkhLml1g2RwwebrIAz4Y0/</t>
+  </si>
+  <si>
+    <t>LENI SURYANI : 3042018273</t>
+  </si>
+  <si>
+    <t>Link Github : https://github.com/LeniSuryani/uas-leni-atw/commit/1a1fd2a67ea6bb8fabecfab07513bc7d2b68a8be</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,13 +153,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color rgb="FF626262"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +175,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,13 +224,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,173 +521,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D16"/>
+  <dimension ref="B1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="74.26953125" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="3" max="3" width="79" customWidth="1"/>
+    <col min="4" max="4" width="68.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="1">
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="1">
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="1">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D18" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Link GIthub dan postingan ig leni.xlsx
+++ b/Link GIthub dan postingan ig leni.xlsx
@@ -83,9 +83,6 @@
     <t>Link Github: https://github.com/LeniSuryani/Laravel-ATW/commit/6127783c0f8588e8a5951fe4ac97f33da15730d4</t>
   </si>
   <si>
-    <t>Link Github: https://github.com/LeniSuryani/file-excel-tugas-atw.git</t>
-  </si>
-  <si>
     <t>Excel</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>Link Github : https://github.com/LeniSuryani/uas-leni-atw/commit/1a1fd2a67ea6bb8fabecfab07513bc7d2b68a8be</t>
+  </si>
+  <si>
+    <t>Link Github: https://github.com/LeniSuryani/file-excel-tugas-atw/commits/master</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="B1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,7 +536,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -558,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -569,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -591,7 +591,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -602,7 +602,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -613,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -624,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -635,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -646,7 +646,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -657,7 +657,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -668,7 +668,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -679,7 +679,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -690,7 +690,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -709,18 +709,18 @@
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7"/>
     </row>
